--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1576621.072707681</v>
+        <v>1685263.234010493</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10392745.83384815</v>
+        <v>10398239.47983657</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>343.4037647165895</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>166.1327403680456</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>124.7728424171213</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.9419525791722</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>245.7681201895049</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>182.9377227717321</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>20.82533459353377</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>29.26423378842738</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>253.9867535831543</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>168.6258104577417</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>9.132219995553143</v>
       </c>
       <c r="W10" t="n">
-        <v>280.2914256361302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>177.1006680594871</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>133.3722917337103</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.5361117049702</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2132,13 +2134,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.7906564314213</v>
       </c>
       <c r="V22" t="n">
-        <v>247.2924896597629</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>243.1373908222617</v>
       </c>
       <c r="W25" t="n">
-        <v>280.3460310779727</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2956,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>112.5284434523311</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.8253826161920278</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3190,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>31.26260713376568</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>97.98413062224057</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>215.3025979624043</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892427719</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>145.2692016866627</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1550.959102576163</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1550.959102576163</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>1550.959102576163</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="Y2" t="n">
-        <v>1550.959102576163</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919906</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.0729169938204</v>
+        <v>599.0346656714327</v>
       </c>
       <c r="C4" t="n">
-        <v>198.1367340659135</v>
+        <v>599.0346656714327</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>599.0346656714327</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>451.1215720890395</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4516,22 +4518,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>825.137147448514</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>825.137147448514</v>
+        <v>1047.81679571298</v>
       </c>
       <c r="X4" t="n">
-        <v>597.1475965504967</v>
+        <v>819.8272448149628</v>
       </c>
       <c r="Y4" t="n">
-        <v>548.7213818240601</v>
+        <v>599.0346656714327</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1990.953909778728</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>1096.2715704099</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>710.483317811656</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>299.4974130220484</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4598,19 +4600,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2377.55374984285</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2377.55374984285</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>2377.55374984285</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.55374984285</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y5" t="n">
-        <v>2377.55374984285</v>
+        <v>1841.137109080772</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>845.9911918222185</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>631.5814458407716</v>
+        <v>391.3353004168657</v>
       </c>
       <c r="C7" t="n">
-        <v>631.5814458407716</v>
+        <v>222.3991174889588</v>
       </c>
       <c r="D7" t="n">
-        <v>481.4648064284358</v>
+        <v>72.28247807662308</v>
       </c>
       <c r="E7" t="n">
-        <v>333.5517128460427</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>186.6617653481324</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>186.6617653481324</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V7" t="n">
-        <v>859.5709967387889</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W7" t="n">
-        <v>859.5709967387889</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="X7" t="n">
-        <v>631.5814458407716</v>
+        <v>793.7763443906356</v>
       </c>
       <c r="Y7" t="n">
-        <v>631.5814458407716</v>
+        <v>572.9837652471055</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>977.0694062730072</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>977.0694062730072</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>618.8037076662567</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>618.8037076662567</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>611.8582069170533</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3044.9860516638</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2791.455574937636</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2791.455574937636</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>2438.686919667522</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X8" t="n">
-        <v>2065.221161406442</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>1363.669246337129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>624.0678491612455</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>305.0150268210028</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.464090846021</v>
+        <v>1141.474570096223</v>
       </c>
       <c r="W10" t="n">
-        <v>1554.341438688313</v>
+        <v>852.0574000592628</v>
       </c>
       <c r="X10" t="n">
-        <v>1326.351887790296</v>
+        <v>624.0678491612455</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.559308646766</v>
+        <v>624.0678491612455</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,67 +5175,67 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831765</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
         <v>1729.097755135313</v>
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872154</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138452</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>695.502065570315</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1211.329899359456</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>3194.624135499465</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>4114.471900408214</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>4114.471900408214</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>3825.054730371253</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>3597.065179473235</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>3376.272600329705</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5980,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>3060.83890577277</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>3658.217393399322</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>4285.815356953929</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>4457.571492023711</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
         <v>929.7309773356195</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1150.52355647915</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1150.52355647915</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>929.7309773356195</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,16 +6308,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.981709809277</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>2877.307316025036</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>3474.685803651587</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>4102.283767206194</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>2823.935653491667</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>2654.99947056376</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4689.999432584258</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>4507.144598239162</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>4287.543133262104</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>3998.467906606302</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>3743.783418400415</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>3454.366248363454</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>3226.376697465437</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>3005.584118321907</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6931,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7125,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,58 +7168,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273902</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121598</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121598</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121598</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121598</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270397</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.052681478291</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038296</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,22 +7721,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>662.1522880254209</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>493.2161050975141</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1064.593331999191</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>843.8007528556607</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013349</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>129.4330134067481</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>109.4223302771039</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>46.45968844822704</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.29586847696709</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>180.3938179578228</v>
       </c>
       <c r="V22" t="n">
-        <v>4.845153664065066</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>9.000252501566337</v>
       </c>
       <c r="W25" t="n">
-        <v>6.176967258618276</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>32.89260457060011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409392966</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>67.54000767002827</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>71.22040037418671</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219467</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>80.4404537023745</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>909245.3865008352</v>
+        <v>915187.314001906</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>893960.69930913</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26319,13 @@
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985042</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
@@ -26332,28 +26334,28 @@
         <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="M2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="N2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,22 +26423,22 @@
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805862</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
         <v>6897.42449670736</v>
@@ -26445,16 +26447,16 @@
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707361</v>
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-805922.1324356052</v>
+        <v>-805922.1324356054</v>
       </c>
       <c r="C6" t="n">
         <v>308829.6511403146</v>
       </c>
       <c r="D6" t="n">
-        <v>147031.6101419945</v>
+        <v>308829.6511403146</v>
       </c>
       <c r="E6" t="n">
-        <v>91212.87367053458</v>
+        <v>-90860.10614665684</v>
       </c>
       <c r="F6" t="n">
-        <v>416625.3354778895</v>
+        <v>416625.3354778894</v>
       </c>
       <c r="G6" t="n">
-        <v>416625.3354778895</v>
+        <v>416625.33547789</v>
       </c>
       <c r="H6" t="n">
         <v>416625.3354778895</v>
       </c>
       <c r="I6" t="n">
-        <v>416625.3354778895</v>
+        <v>416625.3354778896</v>
       </c>
       <c r="J6" t="n">
         <v>249020.1576679071</v>
       </c>
       <c r="K6" t="n">
-        <v>416625.3354778895</v>
+        <v>416625.3354778899</v>
       </c>
       <c r="L6" t="n">
-        <v>368331.3654696987</v>
+        <v>416625.3354778896</v>
       </c>
       <c r="M6" t="n">
-        <v>331570.307542378</v>
+        <v>284018.0417489626</v>
       </c>
       <c r="N6" t="n">
         <v>416625.3354778893</v>
       </c>
       <c r="O6" t="n">
-        <v>416625.3354778894</v>
+        <v>416625.3354778895</v>
       </c>
       <c r="P6" t="n">
-        <v>416625.3354778895</v>
+        <v>416625.3354778896</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.837204000823533</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>203.5983603104234</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>20.64820560580995</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>170.6427007729226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>165.7795825834491</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>68.10752735672995</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>125.6086280530354</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>117.9872753667015</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>157.5609491897997</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>35.29215968187842</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>243.0054233282748</v>
       </c>
       <c r="W10" t="n">
-        <v>6.231572700460788</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-2.495430374854276e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28518,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>730.8697159579444</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>514.6953762540926</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>637.8521160493909</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32788,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O24" t="n">
-        <v>316.0872899694772</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772182</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,7 +33274,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33500,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>248.0319961154043</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33733,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,7 +33985,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,13 +34453,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N45" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34699,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402551</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.8362312321895</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>427.1133740445983</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>588.7356820359261</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>372.0991318096482</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>499.2977362695167</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899106</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,16 +36202,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O24" t="n">
-        <v>173.4910455250327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36674,19 +36676,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37072,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,7 +37633,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37789,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326294864</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N45" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1685263.234010493</v>
+        <v>1681126.076760341</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>173.1932572884151</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>166.1327403680456</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>124.7728424171213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>144.0537076524385</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>245.7681201895049</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>196.9084561741316</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>20.82533459353377</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.98074812542813</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>253.9867535831543</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>163.136652543811</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542792</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>9.132219995553143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>1.294096136276403</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520984</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.3722917337103</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>53.65602513333283</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272918</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>21.90286287505374</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599915</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>105.7906564314213</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>95.81917536083387</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>243.1373908222617</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>4.019807611472697</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8253826161920278</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>97.98413062224057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>200.8913644505277</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>176.7621441121407</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4360,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2387.396644270443</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>2056.333756926872</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656475</v>
+        <v>1703.565101656758</v>
       </c>
       <c r="X2" t="n">
-        <v>1248.370234799863</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429757</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744474</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>599.0346656714327</v>
+        <v>641.675262669166</v>
       </c>
       <c r="C4" t="n">
-        <v>599.0346656714327</v>
+        <v>641.675262669166</v>
       </c>
       <c r="D4" t="n">
-        <v>599.0346656714327</v>
+        <v>491.5586232568303</v>
       </c>
       <c r="E4" t="n">
-        <v>451.1215720890395</v>
+        <v>343.6455296744372</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>196.7555821765268</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.81679571298</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="X4" t="n">
-        <v>819.8272448149628</v>
+        <v>641.675262669166</v>
       </c>
       <c r="Y4" t="n">
-        <v>599.0346656714327</v>
+        <v>641.675262669166</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1454.537269016651</v>
+        <v>1466.396332783112</v>
       </c>
       <c r="C5" t="n">
-        <v>1454.537269016651</v>
+        <v>1097.433815842701</v>
       </c>
       <c r="D5" t="n">
-        <v>1096.2715704099</v>
+        <v>739.1681172359501</v>
       </c>
       <c r="E5" t="n">
-        <v>710.483317811656</v>
+        <v>739.1681172359501</v>
       </c>
       <c r="F5" t="n">
-        <v>299.4974130220484</v>
+        <v>328.1822124463426</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>316.5178662110355</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056584</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X5" t="n">
-        <v>2231.276441056584</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="Y5" t="n">
-        <v>1841.137109080772</v>
+        <v>1852.996172847234</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4649,25 +4649,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>845.9911918222185</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1209.253210781439</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>391.3353004168657</v>
+        <v>716.5983551657494</v>
       </c>
       <c r="C7" t="n">
-        <v>222.3991174889588</v>
+        <v>547.6621722378425</v>
       </c>
       <c r="D7" t="n">
-        <v>72.28247807662308</v>
+        <v>397.5455328255067</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>249.6324392431136</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>102.7424917452032</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4725,16 +4725,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1021.765895288653</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1021.765895288653</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>793.7763443906356</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.9837652471055</v>
+        <v>898.2468199959891</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>977.0694062730072</v>
+        <v>438.8191504929254</v>
       </c>
       <c r="C8" t="n">
-        <v>977.0694062730072</v>
+        <v>69.85663355251363</v>
       </c>
       <c r="D8" t="n">
-        <v>618.8037076662567</v>
+        <v>69.85663355251363</v>
       </c>
       <c r="E8" t="n">
-        <v>618.8037076662567</v>
+        <v>69.85663355251363</v>
       </c>
       <c r="F8" t="n">
-        <v>611.8582069170533</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
@@ -4825,31 +4825,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>1941.792736064053</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312941</v>
+        <v>1589.024080793939</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.808578312941</v>
+        <v>1215.558322532859</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.669246337129</v>
+        <v>825.4189905570472</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.0678491612455</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>455.1316662333386</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>305.0150268210028</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386097</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1141.474570096223</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>852.0574000592628</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>624.0678491612455</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.0678491612455</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>869.9745311434675</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>701.0383482155606</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>550.9217088032249</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973707</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,58 +5266,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803939</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872154</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706077</v>
+        <v>734.6461798835977</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427008</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797191</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138452</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.502065570315</v>
+        <v>916.2946447138374</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5539,16 +5539,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,16 +5606,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5658,19 +5658,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5740,10 +5740,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5837,22 +5837,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3194.624135499465</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3025.687952571559</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U22" t="n">
-        <v>4114.471900408214</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V22" t="n">
-        <v>4114.471900408214</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W22" t="n">
-        <v>3825.054730371253</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X22" t="n">
-        <v>3597.065179473235</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.272600329705</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782922</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038309</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797711</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U25" t="n">
-        <v>2264.108249235165</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.981709809277</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>2877.307316025036</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3474.685803651587</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>4102.283767206194</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2823.935653491667</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>2654.99947056376</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4689.999432584258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.144598239162</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4287.543133262104</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3998.467906606302</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3743.783418400415</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3454.366248363454</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3226.376697465437</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3005.584118321907</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4517.069482196493</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7265,16 +7265,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.8431516380886</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C40" t="n">
-        <v>572.9069687101817</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D40" t="n">
-        <v>422.7903292978459</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>274.8772357154528</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>274.8772357154528</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683283</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
-        <v>129.4330134067481</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>145.1398665102928</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.45968844822704</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>113.590795965295</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>124.5310997715154</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.22910392194582</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>180.3938179578228</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>121.5862749664544</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>9.000252501566337</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>62.35543909864896</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.54986409392966</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>67.54000767002827</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>24.81829093850945</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>109.4223302771034</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.69930913</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.69930913</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.69930913</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.69930913</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893960.6993091302</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="15">
@@ -26319,43 +26319,43 @@
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985036</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="M2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="I2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="N2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985036</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26426,40 +26426,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670731</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707311</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707345</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670731</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707312</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707328</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707328</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-805922.1324356054</v>
+        <v>-805922.1324356049</v>
       </c>
       <c r="C6" t="n">
         <v>308829.6511403146</v>
       </c>
       <c r="D6" t="n">
-        <v>308829.6511403146</v>
+        <v>308829.6511403148</v>
       </c>
       <c r="E6" t="n">
-        <v>-90860.10614665684</v>
+        <v>-91207.48540101381</v>
       </c>
       <c r="F6" t="n">
-        <v>416625.3354778894</v>
+        <v>416277.9562235324</v>
       </c>
       <c r="G6" t="n">
-        <v>416625.33547789</v>
+        <v>416277.9562235326</v>
       </c>
       <c r="H6" t="n">
-        <v>416625.3354778895</v>
+        <v>416277.9562235324</v>
       </c>
       <c r="I6" t="n">
-        <v>416625.3354778896</v>
+        <v>416277.9562235322</v>
       </c>
       <c r="J6" t="n">
-        <v>249020.1576679071</v>
+        <v>248672.7784135498</v>
       </c>
       <c r="K6" t="n">
-        <v>416625.3354778899</v>
+        <v>416277.9562235324</v>
       </c>
       <c r="L6" t="n">
-        <v>416625.3354778896</v>
+        <v>416277.9562235323</v>
       </c>
       <c r="M6" t="n">
-        <v>284018.0417489626</v>
+        <v>283670.6624946056</v>
       </c>
       <c r="N6" t="n">
-        <v>416625.3354778893</v>
+        <v>416277.9562235325</v>
       </c>
       <c r="O6" t="n">
-        <v>416625.3354778895</v>
+        <v>416277.9562235324</v>
       </c>
       <c r="P6" t="n">
-        <v>416625.3354778896</v>
+        <v>416277.9562235322</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>77.8519928400469</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>203.5983603104234</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20.64820560580995</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>22.25289239236571</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>165.7795825834491</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>104.1100963882738</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>125.6086280530354</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.325851919376</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>157.5609491897997</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>43.5215324364228</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>243.0054233282748</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28316,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-3.57807686437443e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.495430374854276e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28538,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-3.57807686437443e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-4.540393329981637e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-3.57807686437443e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29219,7 +29219,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-3.57807686437443e-12</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31688,16 +31688,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>514.6953762540926</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>637.8521160493909</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>138.5955196772182</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402551</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>427.1133740445983</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>372.0991318096482</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>499.2977362695167</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899106</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998948</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294983</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7540807028592577</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>73.18080466315317</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1681126.076760341</v>
+        <v>1682886.607063127</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>284.0788930262602</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>173.1932572884151</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>55.94174219837174</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>144.0537076524385</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -876,13 +876,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>243.8966370462147</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>196.9084561741316</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542813</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>11.87224227536338</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>163.136652543811</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>111.5109739231589</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542792</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.294096136276403</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520984</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>53.65602513333283</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272918</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.6028762599915</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>95.81917536083387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4.019807611472697</v>
+        <v>41.74133133758728</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>200.8913644505277</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>98.72106119200248</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>176.7621441121407</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
         <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2387.396644270443</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2056.333756926872</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1703.565101656758</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1330.099343395678</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.099343395678</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>641.675262669166</v>
+        <v>825.137147448514</v>
       </c>
       <c r="C4" t="n">
-        <v>641.675262669166</v>
+        <v>825.137147448514</v>
       </c>
       <c r="D4" t="n">
-        <v>491.5586232568303</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>343.6455296744372</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>196.7555821765268</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671834</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>869.6648135671834</v>
+        <v>825.137147448514</v>
       </c>
       <c r="X4" t="n">
-        <v>641.675262669166</v>
+        <v>825.137147448514</v>
       </c>
       <c r="Y4" t="n">
-        <v>641.675262669166</v>
+        <v>825.137147448514</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1466.396332783112</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="C5" t="n">
-        <v>1097.433815842701</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="D5" t="n">
-        <v>739.1681172359501</v>
+        <v>1494.730474240484</v>
       </c>
       <c r="E5" t="n">
-        <v>739.1681172359501</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>328.1822124463426</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>316.5178662110355</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,10 +4594,10 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
         <v>2184.059060190805</v>
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
         <v>909.2465818694943</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657494</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378425</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255067</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431136</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452032</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4740,10 +4740,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959891</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>438.8191504929254</v>
+        <v>141.2769458819302</v>
       </c>
       <c r="C8" t="n">
-        <v>69.85663355251363</v>
+        <v>141.2769458819302</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251363</v>
+        <v>141.2769458819302</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251363</v>
+        <v>141.2769458819302</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331015</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800309</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800309</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
@@ -4819,10 +4819,10 @@
         <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.250581723849</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>2272.855623407624</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U8" t="n">
-        <v>2272.855623407624</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="V8" t="n">
-        <v>1941.792736064053</v>
+        <v>1644.250531453058</v>
       </c>
       <c r="W8" t="n">
-        <v>1589.024080793939</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1215.558322532859</v>
+        <v>918.0161179218637</v>
       </c>
       <c r="Y8" t="n">
-        <v>825.4189905570472</v>
+        <v>527.876785946052</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
         <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.543024838023</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694947</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>311.7972275475264</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>163.8841339651333</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434675</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C13" t="n">
-        <v>701.0383482155606</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
-        <v>550.9217088032249</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015258</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973707</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="14">
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798835977</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138374</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5539,28 +5539,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5655,22 +5655,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5931,31 +5931,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854702</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648815</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611855</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138374</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703073</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578601</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782922</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038309</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797711</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>576.8388927589092</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2442.902671851501</v>
+        <v>2404.800122633203</v>
       </c>
       <c r="S28" t="n">
-        <v>2260.047837506405</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T28" t="n">
-        <v>2040.446372529346</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U28" t="n">
-        <v>1751.371145873544</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V28" t="n">
-        <v>1496.686657667657</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W28" t="n">
-        <v>1207.269487630696</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X28" t="n">
-        <v>979.2799367326791</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y28" t="n">
-        <v>758.4873575891489</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311364</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032295</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613761</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.514925172274</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515144</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878355</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>145.1398665102928</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>113.590795965295</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.22910392194582</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>121.5862749664544</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>62.35543909864896</v>
+        <v>24.63391537253441</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.81829093850945</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>109.4223302771034</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>119.4047645948076</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>893960.69930913</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893960.69930913</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>893960.69930913</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893960.69930913</v>
+        <v>893960.6993091301</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893960.6993091301</v>
+        <v>893960.6993091302</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
@@ -26322,31 +26322,31 @@
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="H2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="I2" t="n">
-        <v>524645.2897985037</v>
-      </c>
       <c r="J2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
@@ -26355,7 +26355,7 @@
         <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26426,40 +26426,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670731</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707311</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707345</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670731</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707312</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707328</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-805922.1324356049</v>
+        <v>-805922.1324356056</v>
       </c>
       <c r="C6" t="n">
-        <v>308829.6511403146</v>
+        <v>308829.6511403149</v>
       </c>
       <c r="D6" t="n">
-        <v>308829.6511403148</v>
+        <v>308829.6511403145</v>
       </c>
       <c r="E6" t="n">
-        <v>-91207.48540101381</v>
+        <v>-90894.84407209209</v>
       </c>
       <c r="F6" t="n">
-        <v>416277.9562235324</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="G6" t="n">
-        <v>416277.9562235326</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="H6" t="n">
-        <v>416277.9562235324</v>
+        <v>416590.5975524539</v>
       </c>
       <c r="I6" t="n">
-        <v>416277.9562235322</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="J6" t="n">
-        <v>248672.7784135498</v>
+        <v>248985.4197424712</v>
       </c>
       <c r="K6" t="n">
-        <v>416277.9562235324</v>
+        <v>416590.5975524537</v>
       </c>
       <c r="L6" t="n">
-        <v>416277.9562235323</v>
+        <v>416590.5975524539</v>
       </c>
       <c r="M6" t="n">
-        <v>283670.6624946056</v>
+        <v>283983.303823527</v>
       </c>
       <c r="N6" t="n">
-        <v>416277.9562235325</v>
+        <v>416590.5975524538</v>
       </c>
       <c r="O6" t="n">
-        <v>416277.9562235324</v>
+        <v>416590.5975524536</v>
       </c>
       <c r="P6" t="n">
-        <v>416277.9562235322</v>
+        <v>416590.5975524539</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,25 +26980,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>81.19399874474738</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>77.8519928400469</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>92.67373081984061</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>22.25289239236571</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>138.0337330260471</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>104.1100963882738</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.325851919376</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>395.0038034663481</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>43.5215324364228</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>33.91007409977234</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28316,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-3.57807686437443e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28538,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-3.57807686437443e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.540393329981637e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-3.57807686437443e-12</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29219,7 +29219,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-3.57807686437443e-12</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,7 +31518,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
@@ -31536,7 +31536,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166594</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
@@ -31606,22 +31606,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
@@ -31688,10 +31688,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
@@ -31706,13 +31706,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
         <v>0.09187523529024984</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>502.2268148619681</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L3" t="n">
-        <v>562.7107934893645</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067507</v>
@@ -35184,7 +35184,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949726</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313202</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35263,10 +35263,10 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
@@ -35275,7 +35275,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
@@ -35339,7 +35339,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
@@ -35348,7 +35348,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
         <v>54.881755458054</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36299,7 +36299,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998948</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326294983</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37788,7 +37788,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
